--- a/medicine/Enfance/Kamlahari/Kamlahari.xlsx
+++ b/medicine/Enfance/Kamlahari/Kamlahari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kamlahari est le nom d'un système d'esclavage ayant cours au Népal et, par extension, est l'appellation des fillettes vendues par leurs familles pauvres et réduites en esclavage.
 </t>
@@ -511,7 +523,9 @@
           <t>Le kamlahari</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kamlahari un système de travail forcé des très jeunes filles — dès l'âge de six ans — qui sont employées comme domestiques par des riches familles au Népal. Les fillettes sont fréquemment isolées loin de leur région natale et vulnérables à la violence physique et aux abus sexuels.
 En juillet 2014, le gouvernement népalais a officiellement annoncé l'abolition de la pratique du kamlahari.
@@ -544,7 +558,9 @@
           <t>Documentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kamlahari : Les enfants bradés du Népal, documentaire de Nathalie Engelhardt-Schwaiger et Christoph Schwaiger, 2013</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Haliya</t>
         </is>
